--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-05-07 23:39:09</t>
+    <t>2021-01-14 14:57:30</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>45秒</t>
+    <t>12秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>asus_P023_android_5.1.1</t>
+    <t>brand1_model2_android_5.0</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -113,20 +113,21 @@
     <t>test001</t>
   </si>
   <si>
-    <t>第一次启动app</t>
+    <t>Primer test</t>
   </si>
   <si>
     <t>testFirstOpen</t>
   </si>
   <si>
-    <t>打开app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击个人图片
+    <t>Abrir aplicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfil
+Iniciar sesión
 </t>
   </si>
   <si>
-    <t xml:space="preserve">打开页面成功
+    <t xml:space="preserve">Abra la página con éxito
 </t>
   </si>
 </sst>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="测试总况" sheetId="1" r:id="rId1"/>
-    <sheet name="测试详情" sheetId="2" r:id="rId2"/>
+    <sheet name="Resumen de la prueba" sheetId="1" r:id="rId1"/>
+    <sheet name="Detalles de la prueba" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -17,10 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
-    <t>测试报告总概况</t>
-  </si>
-  <si>
-    <t>WebLink知识测试概括</t>
+    <t>Descripción general del informe de prueba</t>
+  </si>
+  <si>
+    <t>Resumen de la prueba de conocimientos de WebLink</t>
   </si>
   <si>
     <t>versionCode</t>
@@ -32,7 +32,7 @@
     <t>packingTime</t>
   </si>
   <si>
-    <t>测试日期</t>
+    <t>Fecha de la prueba</t>
   </si>
   <si>
     <t>40</t>
@@ -44,70 +44,70 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2021-01-14 14:57:30</t>
-  </si>
-  <si>
-    <t>用例总数</t>
-  </si>
-  <si>
-    <t>通过总数</t>
-  </si>
-  <si>
-    <t>失败总数</t>
-  </si>
-  <si>
-    <t>测试耗时</t>
-  </si>
-  <si>
-    <t>12秒</t>
-  </si>
-  <si>
-    <t>脚本语言</t>
+    <t>2021-01-15 08:19:35</t>
+  </si>
+  <si>
+    <t>Número total de casos de uso</t>
+  </si>
+  <si>
+    <t>Número total de pases</t>
+  </si>
+  <si>
+    <t>Número total de fallas</t>
+  </si>
+  <si>
+    <t>Pruebas que requieren mucho tiempo</t>
+  </si>
+  <si>
+    <t>14segundo</t>
+  </si>
+  <si>
+    <t>Lenguaje de escritura</t>
   </si>
   <si>
     <t>appium1.7+python3</t>
   </si>
   <si>
-    <t>机型</t>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>失败</t>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>por</t>
+  </si>
+  <si>
+    <t>fracaso</t>
   </si>
   <si>
     <t>brand1_model2_android_5.0</t>
   </si>
   <si>
-    <t>测试详情</t>
-  </si>
-  <si>
-    <t>用例ID</t>
-  </si>
-  <si>
-    <t>用例介绍</t>
-  </si>
-  <si>
-    <t>用例函数</t>
-  </si>
-  <si>
-    <t>前置条件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">操作步骤 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查点 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试结果 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">备注 </t>
-  </si>
-  <si>
-    <t>截图</t>
+    <t>Detalles de la prueba</t>
+  </si>
+  <si>
+    <t>ID de caso de uso</t>
+  </si>
+  <si>
+    <t>introducción al caso de uso</t>
+  </si>
+  <si>
+    <t>Función de caso de uso</t>
+  </si>
+  <si>
+    <t>Precondición</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasos de operación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punto de control </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado de la prueba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comentarios </t>
+  </si>
+  <si>
+    <t>captura de pantalla</t>
   </si>
   <si>
     <t>test001</t>
@@ -248,7 +248,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>测试统计</a:t>
+              <a:t>Estadísticas de prueba</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -263,25 +263,25 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>自动化测试统计</c:v>
+            <c:v>Estadísticas de prueba automatizadas</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>测试总况!$C$4:$C$5</c:f>
+              <c:f>Resumen de la prueba!$C$4:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>通过总数</c:v>
+                  <c:v>Número total de pases</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>失败总数</c:v>
+                  <c:v>Número total de fallas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>测试总况!$D$4:$D$5</c:f>
+              <c:f>Resumen de la prueba!$D$4:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
